--- a/Villanueva Morales Luis Arturo 20212.xlsx
+++ b/Villanueva Morales Luis Arturo 20212.xlsx
@@ -4113,6 +4113,9 @@
       <c r="J13" t="s">
         <v>437</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">

--- a/Villanueva Morales Luis Arturo 20212.xlsx
+++ b/Villanueva Morales Luis Arturo 20212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="631">
   <si>
     <t>NC</t>
   </si>
@@ -1452,6 +1452,9 @@
     <t>GAEL</t>
   </si>
   <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
     <t>CRISTIAN FERMIN</t>
   </si>
   <si>
@@ -1530,6 +1533,9 @@
     <t>gg7760448@gmail.com</t>
   </si>
   <si>
+    <t>natigap48@gmail.com</t>
+  </si>
+  <si>
     <t>joseigmo90@hotmail.com</t>
   </si>
   <si>
@@ -1605,6 +1611,9 @@
     <t>2721917796</t>
   </si>
   <si>
+    <t>2722018659</t>
+  </si>
+  <si>
     <t>2721092960</t>
   </si>
   <si>
@@ -1674,6 +1683,9 @@
     <t>2722605467</t>
   </si>
   <si>
+    <t>2721443309</t>
+  </si>
+  <si>
     <t>2721710203</t>
   </si>
   <si>
@@ -1722,6 +1734,9 @@
     <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
   </si>
   <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
     <t>ANDRES GARCIA MONTIEL</t>
   </si>
   <si>
@@ -1855,6 +1870,9 @@
   </si>
   <si>
     <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
   </si>
   <si>
     <t>2721428630</t>
@@ -4351,7 +4369,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4415,19 +4433,19 @@
         <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4447,19 +4465,19 @@
         <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="I3" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="J3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4479,22 +4497,22 @@
         <v>472</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I4" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="J4" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4514,19 +4532,19 @@
         <v>473</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="I5" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="J5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4546,22 +4564,22 @@
         <v>474</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G6" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I6" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="J6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4581,19 +4599,19 @@
         <v>475</v>
       </c>
       <c r="E7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4613,16 +4631,16 @@
         <v>476</v>
       </c>
       <c r="E8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J8" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4642,19 +4660,19 @@
         <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G9" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H9" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J9" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4674,19 +4692,19 @@
         <v>477</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I10" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="J10" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4694,34 +4712,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920121</v>
+        <v>21330051920120</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
         <v>478</v>
       </c>
       <c r="E11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G11" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
-      </c>
-      <c r="I11" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="J11" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4729,31 +4744,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920391</v>
+        <v>21330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
         <v>479</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F12" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="G12" t="s">
+        <v>556</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I12" t="s">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="J12" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4761,34 +4779,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920122</v>
+        <v>21330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
         <v>480</v>
       </c>
       <c r="E13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>531</v>
-      </c>
-      <c r="G13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="I13" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>620</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -4796,34 +4811,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920123</v>
+        <v>21330051920122</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>481</v>
       </c>
       <c r="E14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I14" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J14" t="s">
-        <v>615</v>
+        <v>534</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4831,34 +4846,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920124</v>
+        <v>21330051920123</v>
       </c>
       <c r="B15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
         <v>482</v>
       </c>
       <c r="E15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G15" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H15" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="I15" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J15" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -4866,34 +4881,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920125</v>
+        <v>21330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>448</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
         <v>483</v>
       </c>
       <c r="E16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G16" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I16" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J16" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -4901,34 +4916,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920126</v>
+        <v>21330051920125</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>484</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G17" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="I17" t="s">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="J17" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4936,267 +4951,270 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920127</v>
+        <v>21330051920126</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>485</v>
       </c>
       <c r="E18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F18" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G18" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="I18" t="s">
-        <v>597</v>
+        <v>512</v>
       </c>
       <c r="J18" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920275</v>
+        <v>21330051920127</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="D19" t="s">
         <v>486</v>
       </c>
       <c r="E19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F19" t="s">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="G19" t="s">
+        <v>560</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I19" t="s">
-        <v>512</v>
+        <v>602</v>
       </c>
       <c r="J19" t="s">
-        <v>537</v>
+        <v>623</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920128</v>
+        <v>20330051920275</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>487</v>
       </c>
       <c r="E20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F20" t="s">
-        <v>538</v>
-      </c>
-      <c r="G20" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I20" t="s">
-        <v>598</v>
+        <v>514</v>
       </c>
       <c r="J20" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920129</v>
+        <v>21330051920128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
       </c>
       <c r="C21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
         <v>488</v>
       </c>
       <c r="E21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G21" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H21" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="I21" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920130</v>
-      </c>
-      <c r="B22" t="s">
-        <v>453</v>
+        <v>21330051920129</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
         <v>489</v>
       </c>
       <c r="E22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F22" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="G22" t="s">
+        <v>542</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I22" t="s">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="J22" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920131</v>
+        <v>21330051920130</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
         <v>490</v>
       </c>
       <c r="E23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F23" t="s">
-        <v>541</v>
-      </c>
-      <c r="G23" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I23" t="s">
-        <v>600</v>
+        <v>517</v>
       </c>
       <c r="J23" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>18330051920377</v>
+        <v>21330051920131</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G24" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I24" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920132</v>
+        <v>18330051920377</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
-        <v>543</v>
+        <v>545</v>
+      </c>
+      <c r="G25" t="s">
+        <v>545</v>
       </c>
       <c r="H25" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="I25" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -5204,100 +5222,132 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920152</v>
+        <v>21330051920132</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
         <v>492</v>
       </c>
       <c r="E26" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H26" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I26" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J26" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920133</v>
+        <v>20330051920152</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>493</v>
       </c>
       <c r="E27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F27" t="s">
-        <v>545</v>
-      </c>
-      <c r="G27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H27" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I27" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J27" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920134</v>
+        <v>21330051920133</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="D28" t="s">
         <v>494</v>
       </c>
       <c r="E28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F28" t="s">
-        <v>546</v>
+        <v>548</v>
+      </c>
+      <c r="G28" t="s">
+        <v>548</v>
       </c>
       <c r="H28" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I28" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J28" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>21330051920134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>495</v>
+      </c>
+      <c r="E29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" t="s">
+        <v>549</v>
+      </c>
+      <c r="H29" t="s">
+        <v>590</v>
+      </c>
+      <c r="I29" t="s">
+        <v>610</v>
+      </c>
+      <c r="J29" t="s">
+        <v>630</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
     </row>

--- a/Villanueva Morales Luis Arturo 20212.xlsx
+++ b/Villanueva Morales Luis Arturo 20212.xlsx
@@ -3242,7 +3242,7 @@
         <v>206</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
